--- a/uploads/monthly.xlsx
+++ b/uploads/monthly.xlsx
@@ -14,7 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7" count="7">
+  <x:si>
+    <x:t>fullname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>phonenum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cashapp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>numofspots</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Erik Bridges</x:t>
+  </x:si>
+  <x:si>
+    <x:t> 555-555-555</x:t>
+  </x:si>
+  <x:si>
+    <x:t> $app</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,8 +397,34 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:0"/>
-    <x:row r="2" spans="1:0"/>
+    <x:row r="1" spans="1:4">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:4">
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
